--- a/frontend/public/assets/files/template.xlsx
+++ b/frontend/public/assets/files/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Моё\Проекты\Работа\Торговый Автомат\VendingMachine\wwwroot\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Моё\Проекты\Работа\Торговый Автомат\VendingMachine\frontend\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CCBBA0-F5E7-4185-AEE5-ED37D9896D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A8D162-26FD-4DF0-857E-B06041EF8246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1020" windowWidth="19200" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>Стоимость в руб. (от 1 руб.)</t>
   </si>
   <si>
-    <t>Полное имя файла изображения</t>
+    <t>Полное имя файла изображения (должно совпадать с именем файла, который будет загружен через форму)</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
